--- a/2nde 3/Plan de classe/Plan de classe protocole sanitaire/Plan de Classe 2nde 3 G1.xlsx
+++ b/2nde 3/Plan de classe/Plan de classe protocole sanitaire/Plan de Classe 2nde 3 G1.xlsx
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -305,6 +305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -651,7 +652,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -695,8 +696,8 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="2" t="s">
@@ -708,8 +709,8 @@
         <v>16</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>18</v>
